--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/14/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/14/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8428428428428428</v>
+        <v>0.6955695569556956</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1263.263263263263</v>
+        <v>1455.595559555956</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09799799799799801</v>
+        <v>0.03754375437543755</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8168168168168168</v>
+        <v>0.5943594359435944</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1089.089089089089</v>
+        <v>216.2916291629163</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>615.6156156156156</v>
+        <v>120.0720072007201</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>327.3273273273273</v>
+        <v>598.1620162016201</v>
       </c>
     </row>
   </sheetData>
